--- a/dtpu_configurations/only_integer16/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/graph_utilization.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E30BFF-EF25-4B99-B152-0C6F678CB7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF981BC-54C9-40B1-B688-71F98499FE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>3x3</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
   </si>
   <si>
     <t>LUT</t>
@@ -111,12 +102,15 @@
   <si>
     <t>Total Power</t>
   </si>
+  <si>
+    <t>17,70%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +126,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,10 +162,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -173,9 +175,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -299,7 +305,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -332,15 +338,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -351,47 +348,38 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>16.479324340820313</c:v>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.434211730957031</c:v>
+                  <c:v>18.82</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>18.12</c:v>
+                  <c:v>19.88</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>18.77</c:v>
+                  <c:v>20.96</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>19.05</c:v>
+                  <c:v>22.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0093994140625</c:v>
+                  <c:v>23.55</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>21.81</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>23.94</c:v>
+                  <c:v>29.88</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>25.92</c:v>
+                  <c:v>33.619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>31.55</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.07</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>71.78</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>89.12</c:v>
+                  <c:v>76.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +421,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -466,15 +454,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,46 +465,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.3333334922790527</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3333334922790527</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5.41</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>5.52</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.61</c:v>
+                  <c:v>5.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7126436233520508</c:v>
+                  <c:v>6.02</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>5.9</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>6.08</c:v>
+                  <c:v>6.82</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.26</c:v>
+                  <c:v>7.18</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>7.18</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +537,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -600,15 +570,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -620,46 +581,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.11936092376709</c:v>
+                  <c:v>11.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.668232917785645</c:v>
+                  <c:v>12.42</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>12</c:v>
+                  <c:v>13.02</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>12.57</c:v>
+                  <c:v>13.92</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>14.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.816729545593262</c:v>
+                  <c:v>15.94</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>15.23</c:v>
+                  <c:v>18.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>16.95</c:v>
+                  <c:v>21.41</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>24.86</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>22.09</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>47.99</c:v>
+                  <c:v>40.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +653,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -734,15 +686,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -754,22 +697,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.285717010498047</c:v>
+                  <c:v>45.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.428569793701172</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.857143402099609</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>57.86</c:v>
@@ -784,15 +727,6 @@
                   <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>57.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -835,7 +769,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -868,15 +802,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -888,10 +813,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.7272727489471436</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4545454978942871</c:v>
+                  <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>9.09</c:v>
@@ -903,7 +828,7 @@
                   <c:v>19.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.454544067382813</c:v>
+                  <c:v>25.45</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>40.909999999999997</c:v>
@@ -918,15 +843,6 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -969,7 +885,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1002,15 +918,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1052,15 +959,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1105,7 +1003,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1138,15 +1036,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,10 +1047,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.13</c:v>
@@ -1173,7 +1062,7 @@
                   <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>3.13</c:v>
@@ -1188,15 +1077,6 @@
                   <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -1417,7 +1297,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1638,7 +1518,7 @@
             <c:strRef>
               <c:f>timng!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1671,15 +1551,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1691,46 +1562,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>21.14</c:v>
+                  <c:v>15.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.14</c:v>
+                  <c:v>15.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.15</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.809999999999999</c:v>
+                  <c:v>13.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.34</c:v>
+                  <c:v>13.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.68</c:v>
+                  <c:v>13.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.91</c:v>
+                  <c:v>10.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.98</c:v>
+                  <c:v>8.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.53</c:v>
+                  <c:v>4.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.37</c:v>
+                  <c:v>4.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>12.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1634,7 @@
             <c:strRef>
               <c:f>timng!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1805,15 +1667,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1831,16 +1684,16 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.02</c:v>
@@ -1852,19 +1705,10 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,7 +2174,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2363,15 +2207,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2404,7 +2239,7 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.02</c:v>
@@ -2413,15 +2248,6 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -2462,7 +2288,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2495,15 +2321,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2545,15 +2362,6 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2594,7 +2402,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2627,15 +2435,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2671,21 +2470,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2726,7 +2516,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2759,15 +2549,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,7 +2581,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2810,15 +2591,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2630,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2891,15 +2663,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2941,15 +2704,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2990,7 +2744,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3023,15 +2777,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3073,15 +2818,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3124,7 +2860,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3157,15 +2893,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3207,15 +2934,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3258,7 +2976,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3291,15 +3009,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3341,15 +3050,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3392,7 +3092,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3425,15 +3125,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3475,15 +3166,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3526,7 +3208,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3559,15 +3241,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3591,13 +3264,13 @@
                   <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.42</c:v>
@@ -3610,15 +3283,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,62 +5721,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>16.479324340820313</v>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="2">
-        <v>11.11936092376709</v>
+        <v>11.57</v>
       </c>
       <c r="E2" s="2">
-        <v>34.285717010498047</v>
+        <v>45.71</v>
       </c>
       <c r="F2" s="2">
-        <v>2.7272727489471436</v>
+        <v>2.73</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6120,25 +5784,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>17.434211730957031</v>
+        <v>18.82</v>
       </c>
       <c r="C3" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.34</v>
       </c>
       <c r="D3" s="2">
-        <v>11.668232917785645</v>
+        <v>12.42</v>
       </c>
       <c r="E3" s="2">
-        <v>46.428569793701172</v>
+        <v>57.86</v>
       </c>
       <c r="F3" s="2">
-        <v>5.4545454978942871</v>
+        <v>5.45</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6146,16 +5810,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.12</v>
+        <v>19.88</v>
       </c>
       <c r="C4">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13.02</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
         <v>9.09</v>
@@ -6172,16 +5836,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77</v>
+        <v>20.96</v>
       </c>
       <c r="C5">
-        <v>5.52</v>
+        <v>5.7</v>
       </c>
       <c r="D5">
-        <v>12.57</v>
+        <v>13.92</v>
       </c>
       <c r="E5">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F5">
         <v>13.64</v>
@@ -6198,16 +5862,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.05</v>
+        <v>22.14</v>
       </c>
       <c r="C6">
-        <v>5.61</v>
+        <v>5.86</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14.73</v>
       </c>
       <c r="E6">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F6">
         <v>19.09</v>
@@ -6224,25 +5888,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>20.0093994140625</v>
+        <v>23.55</v>
       </c>
       <c r="C7" s="2">
-        <v>5.7126436233520508</v>
+        <v>6.02</v>
       </c>
       <c r="D7" s="2">
-        <v>13.816729545593262</v>
+        <v>15.94</v>
       </c>
       <c r="E7" s="2">
-        <v>57.857143402099609</v>
+        <v>57.86</v>
       </c>
       <c r="F7" s="2">
-        <v>25.454544067382813</v>
+        <v>25.45</v>
       </c>
       <c r="G7" s="2">
         <v>8</v>
       </c>
       <c r="H7" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6250,13 +5914,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.81</v>
+        <v>26.5</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.45</v>
       </c>
       <c r="D8">
-        <v>15.23</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="E8">
         <v>57.86</v>
@@ -6276,13 +5940,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.94</v>
+        <v>29.88</v>
       </c>
       <c r="C9">
-        <v>6.08</v>
+        <v>6.82</v>
       </c>
       <c r="D9">
-        <v>16.95</v>
+        <v>21.41</v>
       </c>
       <c r="E9">
         <v>57.86</v>
@@ -6302,13 +5966,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.92</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="C10">
-        <v>6.26</v>
+        <v>7.18</v>
       </c>
       <c r="D10">
-        <v>18.899999999999999</v>
+        <v>24.86</v>
       </c>
       <c r="E10">
         <v>57.86</v>
@@ -6354,13 +6018,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.2</v>
+        <v>76.27</v>
       </c>
       <c r="C12">
-        <v>6.61</v>
+        <v>7.9</v>
       </c>
       <c r="D12">
-        <v>27.6</v>
+        <v>40.21</v>
       </c>
       <c r="E12">
         <v>57.86</v>
@@ -6372,86 +6036,17 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>3.13</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>57.07</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.75</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>71.78</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>89.12</v>
-      </c>
-      <c r="C15">
-        <v>7.18</v>
-      </c>
-      <c r="D15">
-        <v>47.99</v>
-      </c>
-      <c r="E15">
-        <v>57.86</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>6.25</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -6462,7 +6057,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6471,17 +6067,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6489,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14</v>
+        <v>15.97</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -6500,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.14</v>
+        <v>15.06</v>
       </c>
       <c r="C3">
         <v>0.02</v>
@@ -6511,10 +6107,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.15</v>
+        <v>0.01</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6522,10 +6118,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.809999999999999</v>
+        <v>13.38</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6533,10 +6129,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.34</v>
+        <v>13.31</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6544,10 +6140,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.68</v>
+        <v>13.22</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6555,7 +6151,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.91</v>
+        <v>10.23</v>
       </c>
       <c r="C8">
         <v>0.02</v>
@@ -6566,7 +6162,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.98</v>
+        <v>8.84</v>
       </c>
       <c r="C9">
         <v>0.01</v>
@@ -6577,7 +6173,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.53</v>
+        <v>4.88</v>
       </c>
       <c r="C10">
         <v>0.02</v>
@@ -6588,10 +6184,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.37</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6599,44 +6195,20 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.16</v>
+        <v>12.57</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7.32</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6648,42 +6220,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6858,7 +6430,7 @@
         <v>0.13</v>
       </c>
       <c r="K6">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6928,7 +6500,7 @@
         <v>0.13</v>
       </c>
       <c r="K8">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6936,7 +6508,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C9">
         <v>0.01</v>
@@ -6945,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6977,7 +6549,7 @@
         <v>0.01</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7012,7 +6584,7 @@
         <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7072,109 +6644,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.02</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.43</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.02</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.44</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1.43</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dtpu_configurations/only_integer16/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/graph_utilization.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF981BC-54C9-40B1-B688-71F98499FE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281ED5DA-56B7-4A47-9E97-F7BE06105D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
     <sheet name="timng" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>3x3</t>
   </si>
@@ -73,9 +83,6 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>MXU size/Utilization</t>
-  </si>
-  <si>
     <t>WNS</t>
   </si>
   <si>
@@ -103,13 +110,16 @@
     <t>Total Power</t>
   </si>
   <si>
-    <t>17,70%</t>
+    <t>PL dynamic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,18 +176,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -210,184 +222,99 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Implementation Utilization Only Integer 8</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$B$1</c:f>
+              <c:f>utilizatio!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUT</c:v>
+                  <c:v>3x3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$B$2:$B$15</c:f>
+              <c:f>utilizatio!$B$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.82</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>19.88</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>20.96</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>22.14</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.55</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>29.88</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>33.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>31.55</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>76.27</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000000-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -396,114 +323,87 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$C$1</c:f>
+              <c:f>utilizatio!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUTRAM</c:v>
+                  <c:v>4x4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$C$2:$C$15</c:f>
+              <c:f>utilizatio!$B$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.34</c:v>
+                  <c:v>0.18820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.34</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>5.52</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>5.86</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.45E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.02</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>7.9</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000001-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -512,114 +412,87 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$D$1</c:f>
+              <c:f>utilizatio!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF</c:v>
+                  <c:v>5x5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$D$2:$D$15</c:f>
+              <c:f>utilizatio!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.57</c:v>
+                  <c:v>0.1988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.42</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>13.02</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>13.92</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>14.73</c:v>
+                  <c:v>5.5199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0899999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.94</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>18.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>21.41</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>24.86</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>40.21</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000002-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -628,114 +501,87 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$E$1</c:f>
+              <c:f>utilizatio!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BRAM</c:v>
+                  <c:v>6x6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$E$2:$E$15</c:f>
+              <c:f>utilizatio!$B$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45.71</c:v>
+                  <c:v>0.20960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>57.86</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>57.86</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000003-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -744,114 +590,87 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$F$1</c:f>
+              <c:f>utilizatio!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DSP</c:v>
+                  <c:v>7x7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$F$2:$F$15</c:f>
+              <c:f>utilizatio!$B$6:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.73</c:v>
+                  <c:v>0.22140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>13.64</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>19.09</c:v>
+                  <c:v>5.8200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.45</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000004-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -860,114 +679,87 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$G$1</c:f>
+              <c:f>utilizatio!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I/O</c:v>
+                  <c:v>8x8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$G$2:$G$15</c:f>
+              <c:f>utilizatio!$B$7:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0.23549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>6.0199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000005-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -976,116 +768,453 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$H$1</c:f>
+              <c:f>utilizatio!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BUFG</c:v>
+                  <c:v>10x10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$H$2:$H$15</c:f>
+              <c:f>utilizatio!$B$8:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.13</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.13</c:v>
+                  <c:v>6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>6.25</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000006-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14x14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16x16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.45519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18x18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.76270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6F75-47DB-BFBB-68EA6D5B4EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1097,86 +1226,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="522638264"/>
-        <c:axId val="324305832"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="497413624"/>
+        <c:axId val="497413952"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="522638264"/>
+        <c:axId val="497413624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mxu Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1214,7 +1275,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324305832"/>
+        <c:crossAx val="497413952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,9 +1283,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324305832"/>
+        <c:axId val="497413952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1242,61 +1304,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Utilization</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1328,7 +1335,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522638264"/>
+        <c:crossAx val="497413624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1391,7 +1398,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr anchor="t" anchorCtr="0"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1405,7 +1412,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2215,40 +2221,40 @@
             <c:numRef>
               <c:f>power!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2360031716525555E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2722240760922432E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2973983772099018E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2938038446009159E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3704583048820496E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4049473218619823E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4926894567906857E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>1.57781932502985E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6736319288611412E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02</c:v>
+                  <c:v>1.8117615953087807E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>1.9011212512850761E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,40 +2335,40 @@
             <c:numRef>
               <c:f>power!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.9739019013941288E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>5.2150641568005085E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>5.4554506205022335E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>5.4922224953770638E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>6.4861825667321682E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>5.8949221856892109E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>6.2583032995462418E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01</c:v>
+                  <c:v>7.3637580499053001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                  <c:v>8.3089657127857208E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                  <c:v>8.5007688030600548E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0217825882136822E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,40 +2449,40 @@
             <c:numRef>
               <c:f>power!$D$2:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.9514512754976749E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.0179891511797905E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.0596094913780689E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.9758253842592239E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.3257749639451504E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.3050176464021206E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.5069856569170952E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.7916327603161335E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                  <c:v>5.0996989011764526E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                  <c:v>5.1395087502896786E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
+                  <c:v>5.8333338238298893E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,40 +2563,40 @@
             <c:numRef>
               <c:f>power!$E$2:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3308014497160912E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9195602983236313E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.8917642086744308E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.1875829920172691E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.1770394891500473E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.029827494174242E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.2923421822488308E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.3869344517588615E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.8001770153641701E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.9780070073902607E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.8358735144138336E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,40 +2677,40 @@
             <c:numRef>
               <c:f>power!$F$2:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1050494726514444E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7349158952129073E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.1477513402933255E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.5861069490201771E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5976434224285185E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.758340815489646E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.4721293812035583E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4349981211125851E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.6026801313273609E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.5925389491021633E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.4971596323885024E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,40 +2791,40 @@
             <c:numRef>
               <c:f>power!$G$2:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.4851698698475957E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.6803267691284418E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0529307182878256E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.1531820362433791E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.3536218320950866E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.4777309782803059E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.4195064846426249E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9.8192691802978516E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.3966535748913884E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.8277172977104783E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.6864504110999405E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,40 +2907,40 @@
             <c:numRef>
               <c:f>power!$H$2:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,40 +3023,40 @@
             <c:numRef>
               <c:f>power!$I$2:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,40 +3139,40 @@
             <c:numRef>
               <c:f>power!$J$2:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.1261412650346756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12723591923713684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12725140154361725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12725237011909485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12727367877960205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12725618481636047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12727078795433044</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12730003893375397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12731222808361053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12732633948326111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12734293937683105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,40 +3255,40 @@
             <c:numRef>
               <c:f>power!$K$2:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.41</c:v>
+                  <c:v>1.4085742235183716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.41</c:v>
+                  <c:v>1.4109612703323364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41</c:v>
+                  <c:v>1.4128817319869995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.41</c:v>
+                  <c:v>1.4130023717880249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4156457185745239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.41</c:v>
+                  <c:v>1.4134758710861206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4152871370315552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4189110994338989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4204224348068237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4221693277359009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4242246150970459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,7 +3434,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3707,7 +3713,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3815,11 +3821,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3830,11 +3831,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3866,9 +3862,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5237,22 +5230,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15F657A-6E36-4A78-B524-26DE3B789BE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFED48D-6F4E-4EAD-A8DD-BAE792CC3C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5274,49 +5267,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02225</cdr:x>
-      <cdr:y>0.09181</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.09179</cdr:x>
-      <cdr:y>0.15136</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0869A4B4-3EB4-4E6B-AB79-B81404B2F604}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="121920" y="281940"/>
-          <a:ext cx="381000" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5357,7 +5307,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5721,16 +5671,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -5757,286 +5709,286 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="D2" s="2">
-        <v>11.57</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45.71</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.13</v>
+      <c r="B2" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1157</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.45710000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>18.82</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="D3" s="2">
-        <v>12.42</v>
-      </c>
-      <c r="E3" s="2">
-        <v>57.86</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.45</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.13</v>
+      <c r="B3" s="3">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1242</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.45E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>19.88</v>
-      </c>
-      <c r="C4">
-        <v>5.52</v>
-      </c>
-      <c r="D4">
-        <v>13.02</v>
-      </c>
-      <c r="E4">
-        <v>57.86</v>
-      </c>
-      <c r="F4">
-        <v>9.09</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>3.13</v>
+      <c r="B4" s="4">
+        <v>0.1988</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>20.96</v>
-      </c>
-      <c r="C5">
-        <v>5.7</v>
-      </c>
-      <c r="D5">
-        <v>13.92</v>
-      </c>
-      <c r="E5">
-        <v>57.86</v>
-      </c>
-      <c r="F5">
-        <v>13.64</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
+      <c r="B5" s="4">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>22.14</v>
-      </c>
-      <c r="C6">
-        <v>5.86</v>
-      </c>
-      <c r="D6">
-        <v>14.73</v>
-      </c>
-      <c r="E6">
-        <v>57.86</v>
-      </c>
-      <c r="F6">
-        <v>19.09</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
+      <c r="B6" s="4">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>23.55</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.02</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15.94</v>
-      </c>
-      <c r="E7" s="2">
-        <v>57.86</v>
-      </c>
-      <c r="F7" s="2">
-        <v>25.45</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.13</v>
+      <c r="B7" s="3">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.2545</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>26.5</v>
-      </c>
-      <c r="C8">
-        <v>6.45</v>
-      </c>
-      <c r="D8">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
+      <c r="B8" s="4">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.1842</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>29.88</v>
-      </c>
-      <c r="C9">
-        <v>6.82</v>
-      </c>
-      <c r="D9">
-        <v>21.41</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
+      <c r="B9" s="4">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>33.619999999999997</v>
-      </c>
-      <c r="C10">
-        <v>7.18</v>
-      </c>
-      <c r="D10">
-        <v>24.86</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
+      <c r="B10" s="4">
+        <v>0.3362</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>31.55</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.09</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
+      <c r="B11" s="4">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.3044</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>76.27</v>
-      </c>
-      <c r="C12">
-        <v>7.9</v>
-      </c>
-      <c r="D12">
-        <v>40.21</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>6.25</v>
+      <c r="B12" s="4">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6057,7 +6009,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6074,10 +6026,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6218,23 +6170,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -6246,421 +6202,1004 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5">
+        <v>1.2360031716525555E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.9739019013941288E-3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.9514512754976749E-3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.3308014497160912E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3.1050494726514444E-6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6.4851698698475957E-4</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.1261412650346756</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.4085742235183716</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>2.4859711527824402E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="O2" s="6">
+        <f>B2/L2</f>
+        <v>0.49719127684532882</v>
+      </c>
+      <c r="P2" s="6">
+        <f>C2/L2</f>
+        <v>0.20007882616928419</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>D2/L2</f>
+        <v>0.15895000515492652</v>
+      </c>
+      <c r="R2" s="6">
+        <f>E2/L2</f>
+        <v>9.375818569364032E-2</v>
+      </c>
+      <c r="S2" s="6">
+        <f>F2/L2</f>
+        <v>1.2490287625325404E-4</v>
+      </c>
+      <c r="T2" s="6">
+        <f>G2/L2</f>
+        <v>2.6087068076349258E-2</v>
+      </c>
+      <c r="U2" s="6">
+        <f>H2/L2</f>
+        <v>2.3647855468148248E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.41</v>
+      <c r="X2" s="6">
+        <f>I2/K2</f>
+        <v>0.89279870805435724</v>
+      </c>
+      <c r="Y2" s="6">
+        <f>J2/K2</f>
+        <v>8.9552444541826717E-2</v>
+      </c>
+      <c r="Z2" s="6">
+        <f>L2/K2</f>
+        <v>1.7648847403816035E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.41</v>
+      <c r="B3" s="5">
+        <v>1.2722240760922432E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.2150641568005085E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.0179891511797905E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.9195602983236313E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.7349158952129073E-5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6.6803267691284418E-4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.12723591923713684</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.4109612703323364</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L12" si="0">K3-J3-I3</f>
+        <v>2.6152104139328003E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.48647101943091831</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.1994127940534621</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.15363923031865978</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.11163768248892617</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>6.6339438156485077E-4</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.5544127285278155E-2</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.2479218576748766E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.89128828225006063</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>9.0176762404802088E-2</v>
+      </c>
+      <c r="Z3" s="6">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>1.8534955345137265E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.41</v>
+      <c r="B4" s="5">
+        <v>1.2973983772099018E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.4554506205022335E-3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.0596094913780689E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.8917642086744308E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3.1477513402933255E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.0529307182878256E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.12725140154361725</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.4128817319869995</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2.8057083487510681E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.46241384204720537</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19444111583909535</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="3"/>
+        <v>0.14469107215599092</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="4"/>
+        <v>0.13870879382052698</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1219096745014551E-3</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" si="6"/>
+        <v>3.7528160001253398E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <f t="shared" si="7"/>
+        <v>2.0952957047425776E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="6">
+        <f t="shared" si="8"/>
+        <v>0.89007679728952926</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" si="9"/>
+        <v>9.0065147466134934E-2</v>
+      </c>
+      <c r="Z4" s="6">
+        <f t="shared" si="10"/>
+        <v>1.9858055244335798E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.41</v>
+      <c r="B5" s="5">
+        <v>1.2938038446009159E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.4922224953770638E-3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.9758253842592239E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.1875829920172691E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.5861069490201771E-5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>9.1531820362433791E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.12725237011909485</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.4130023717880249</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.8176754713058472E-2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.4591741872960638</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19492033597580002</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.14110302711392927</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="4"/>
+        <v>0.14861835703444373</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6923281358248144E-3</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="6"/>
+        <v>3.2484869636180462E-2</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="7"/>
+        <v>2.0863966456626703E-2</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="8"/>
+        <v>0.89000080400751769</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="9"/>
+        <v>9.0058143326446544E-2</v>
+      </c>
+      <c r="Z5" s="6">
+        <f t="shared" si="10"/>
+        <v>1.9941052666035779E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.42</v>
+      <c r="B6" s="5">
+        <v>1.3704583048820496E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.4861825667321682E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.3257749639451504E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.1770394891500473E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.5976434224285185E-4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.3536218320950866E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.12727367877960205</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.4156457185745239</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3.0798792839050293E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.44497143509612591</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21059859717969956</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.14045274392899029</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="4"/>
+        <v>0.13562348079610154</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="5"/>
+        <v>5.1873572798049423E-3</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="6"/>
+        <v>4.3950483357218059E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="7"/>
+        <v>1.9087724257960823E-2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="8"/>
+        <v>0.88833896112240396</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="9"/>
+        <v>8.9905035638266559E-2</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="10"/>
+        <v>2.1756003239329511E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.41</v>
+      <c r="B7" s="5">
+        <v>1.4049473218619823E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.8949221856892109E-3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.3050176464021206E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.029827494174242E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.758340815489646E-5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7.4777309782803059E-4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.12725618481636047</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.4134758710861206</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2.864643931388855E-2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.49044396284910241</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20578202132197271</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.15028107330305915</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.10576628602862002</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="5"/>
+        <v>9.6289133363682293E-4</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="6"/>
+        <v>2.6103526851432822E-2</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="7"/>
+        <v>2.0521882623814651E-2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="8"/>
+        <v>0.88970266325773728</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="9"/>
+        <v>9.0030673617779056E-2</v>
+      </c>
+      <c r="Z7" s="6">
+        <f t="shared" si="10"/>
+        <v>2.0266663124483695E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.42</v>
+      <c r="B8" s="5">
+        <v>1.4926894567906857E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.2583032995462418E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.5069856569170952E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.2923421822488308E-3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.4721293812035583E-5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8.4195064846426249E-4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.12727078795433044</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.4152871370315552</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>3.0443102121353149E-2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" ref="O8:O12" si="11">B8/L8</f>
+        <v>0.49032107530976476</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" ref="P8:P12" si="12">C8/L8</f>
+        <v>0.20557377085289197</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" ref="Q8:Q12" si="13">D8/L8</f>
+        <v>0.14804620235320376</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" ref="R8:R12" si="14">E8/L8</f>
+        <v>0.10814739474068062</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" ref="S8:S12" si="15">F8/L8</f>
+        <v>8.1204910437480602E-4</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" ref="T8:T12" si="16">G8/L8</f>
+        <v>2.7656532672263659E-2</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" ref="U8:U12" si="17">H8/L8</f>
+        <v>1.9310741160556866E-2</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="8"/>
+        <v>0.88856403343954982</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="9"/>
+        <v>8.9925771685645459E-2</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" si="10"/>
+        <v>2.1510194874804683E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.02</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.42</v>
+      <c r="B9" s="5">
+        <v>1.57781932502985E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7.3637580499053001E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.7916327603161335E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.3869344517588615E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.4349981211125851E-4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9.8192691802978516E-4</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.12730003893375397</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.4189110994338989</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>3.4037813544273376E-2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="11"/>
+        <v>0.46354896532280554</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="12"/>
+        <v>0.21634051318622963</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="13"/>
+        <v>0.14077381186907326</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="14"/>
+        <v>0.12888414369074339</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="15"/>
+        <v>4.2158939476123116E-3</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="16"/>
+        <v>2.8848119658231908E-2</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="17"/>
+        <v>1.7271346305049517E-2</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" ref="X9:X12" si="18">I9/K9</f>
+        <v>0.88629460116113257</v>
+      </c>
+      <c r="Y9" s="6">
+        <f t="shared" ref="Y9:Y12" si="19">J9/K9</f>
+        <v>8.9716712332818235E-2</v>
+      </c>
+      <c r="Z9" s="6">
+        <f t="shared" ref="Z9:Z12" si="20">L9/K9</f>
+        <v>2.398868650604918E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.02</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.42</v>
+      <c r="B10" s="5">
+        <v>1.6736319288611412E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8.3089657127857208E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.0996989011764526E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.8001770153641701E-3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.6026801313273609E-4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8.3966535748913884E-4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.12731222808361053</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1.4204224348068237</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>3.5536959767341614E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="11"/>
+        <v>0.47095529269197789</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="12"/>
+        <v>0.23381194584973028</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="13"/>
+        <v>0.14350408517115368</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="14"/>
+        <v>0.10693590673607718</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="15"/>
+        <v>4.509896574777396E-3</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="16"/>
+        <v>2.3627945749618948E-2</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="17"/>
+        <v>1.6542745047372052E-2</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="18"/>
+        <v>0.88535158002267156</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="19"/>
+        <v>8.9629834733583949E-2</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="20"/>
+        <v>2.5018585243744486E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.02</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.42</v>
+      <c r="B11" s="5">
+        <v>1.8117615953087807E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8.5007688030600548E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.1395087502896786E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.9780070073902607E-3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.5925389491021633E-4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6.8277172977104783E-4</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.12732633948326111</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.4221693277359009</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>3.7269741296768188E-2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="11"/>
+        <v>0.4861213231619308</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="12"/>
+        <v>0.22808767936892524</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="13"/>
+        <v>0.13790030656143423</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="14"/>
+        <v>0.10673556802325349</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="15"/>
+        <v>6.9561495703941816E-3</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="16"/>
+        <v>1.8319733542938591E-2</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="17"/>
+        <v>1.5773623447201866E-2</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" si="18"/>
+        <v>0.8842640763163786</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="19"/>
+        <v>8.9529662185841921E-2</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="20"/>
+        <v>2.6206261497779427E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.02</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.42</v>
+      <c r="B12" s="5">
+        <v>1.9011212512850761E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.0217825882136822E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.8333338238298893E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.8358735144138336E-3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.4971596323885024E-4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.6864504110999405E-4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.12734293937683105</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.4242246150970459</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>3.9308428764343262E-2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="11"/>
+        <v>0.48364213758897079</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="12"/>
+        <v>0.25993981960951407</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="13"/>
+        <v>0.1483990586039734</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="14"/>
+        <v>7.2144158480998838E-2</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="15"/>
+        <v>8.8967169187916806E-3</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="16"/>
+        <v>1.1922253212397609E-2</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="17"/>
+        <v>1.4955542199720692E-2</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="18"/>
+        <v>0.88298800176977787</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="19"/>
+        <v>8.941211802335966E-2</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="20"/>
+        <v>2.7599880206862458E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
